--- a/public/files/Data_By_Towns_Index/Monmouth/Freehold Township.xlsx
+++ b/public/files/Data_By_Towns_Index/Monmouth/Freehold Township.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Owner Name</t>
@@ -454,9 +459,19 @@
           <t>Search</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Longitude</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,9 +494,15 @@
           <t>Desai</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>40.2652023</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-74.25706629999999</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -504,9 +525,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>40.1941206</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-74.3634593</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -529,9 +556,15 @@
           <t>Goswami</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>40.22573999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-74.29494</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -554,9 +587,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>40.2773567</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-74.25929599999999</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -579,9 +618,15 @@
           <t>Gupta</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>40.2327238</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-74.25677159999999</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -604,9 +649,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>40.216017</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-74.2977621</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -629,9 +680,15 @@
           <t>Joshi</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>40.24688829999999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-74.26502049999999</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="A9" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -654,9 +711,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>40.2269064</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-74.3209502</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
+      <c r="A10" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -679,9 +742,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>40.2471566</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-74.3151737</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
+      <c r="A11" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -704,9 +773,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F11" t="n">
+        <v>40.2005092</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-74.2957416</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
+      <c r="A12" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -729,9 +804,15 @@
           <t>Kumar</t>
         </is>
       </c>
+      <c r="F12" t="n">
+        <v>40.2622302</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-74.25968829999999</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
+      <c r="A13" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -754,9 +835,15 @@
           <t>Lakhani</t>
         </is>
       </c>
+      <c r="F13" t="n">
+        <v>40.2269105</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-74.31391810000001</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
+      <c r="A14" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -779,9 +866,15 @@
           <t>Lakhani</t>
         </is>
       </c>
+      <c r="F14" t="n">
+        <v>40.2360231</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-74.26284249999999</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
+      <c r="A15" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -804,9 +897,15 @@
           <t>Lakhani</t>
         </is>
       </c>
+      <c r="F15" t="n">
+        <v>40.2551423</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-74.24475289999999</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
+      <c r="A16" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -829,9 +928,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F16" t="n">
+        <v>40.2251065</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-74.31358609999999</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
+      <c r="A17" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -854,9 +959,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F17" t="n">
+        <v>40.2449214</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-74.2650367</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
+      <c r="A18" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -879,9 +990,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F18" t="n">
+        <v>40.28213119999999</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-74.2817695</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
+      <c r="A19" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -904,9 +1021,15 @@
           <t>Mehta</t>
         </is>
       </c>
+      <c r="F19" t="n">
+        <v>40.21599459999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-74.2905056</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
+      <c r="A20" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -929,9 +1052,15 @@
           <t>Mistry</t>
         </is>
       </c>
+      <c r="F20" t="n">
+        <v>40.2289874</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-74.2791055</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
+      <c r="A21" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -954,9 +1083,15 @@
           <t>Parmar</t>
         </is>
       </c>
+      <c r="F21" t="n">
+        <v>40.2153167</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-74.27724329999999</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
+      <c r="A22" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -979,9 +1114,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F22" t="n">
+        <v>40.216313</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-74.2997843</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
+      <c r="A23" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -1004,9 +1145,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F23" t="n">
+        <v>40.22573999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-74.29494</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
+      <c r="A24" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -1029,9 +1176,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F24" t="n">
+        <v>40.24897989999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-74.3110597</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
+      <c r="A25" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -1054,9 +1207,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F25" t="n">
+        <v>40.2253384</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-74.32061059999999</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
+      <c r="A26" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -1079,9 +1238,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F26" t="n">
+        <v>40.2413405</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-74.2854777</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
+      <c r="A27" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -1104,9 +1269,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F27" t="n">
+        <v>40.2461441</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-74.2660937</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
+      <c r="A28" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -1129,9 +1300,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F28" t="n">
+        <v>40.2424683</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-74.3197515</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
+      <c r="A29" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -1154,9 +1331,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F29" t="n">
+        <v>40.28431459999999</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-74.25421</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
+      <c r="A30" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,9 +1362,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F30" t="n">
+        <v>40.2226901</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-74.31239409999999</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
+      <c r="A31" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -1204,9 +1393,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F31" t="n">
+        <v>40.2813916</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-74.25850079999999</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
+      <c r="A32" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -1229,9 +1424,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F32" t="n">
+        <v>40.2810661</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-74.2592016</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
+      <c r="A33" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -1254,9 +1455,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F33" t="n">
+        <v>40.2482703</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-74.2650991</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
+      <c r="A34" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -1279,9 +1486,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F34" t="n">
+        <v>40.284313</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-74.2566259</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
+      <c r="A35" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -1304,9 +1517,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F35" t="n">
+        <v>40.2799965</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-74.2601095</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
+      <c r="A36" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -1329,9 +1548,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F36" t="n">
+        <v>40.2285142</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-74.32451429999999</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
+      <c r="A37" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -1354,9 +1579,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F37" t="n">
+        <v>40.2780579</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-74.2581132</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
+      <c r="A38" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -1379,9 +1610,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F38" t="n">
+        <v>40.24272089999999</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-74.3208727</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
+      <c r="A39" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -1404,9 +1641,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F39" t="n">
+        <v>40.2736034</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-74.25350829999999</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
+      <c r="A40" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -1429,9 +1672,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F40" t="n">
+        <v>40.2206568</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-74.3110473</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
+      <c r="A41" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -1454,9 +1703,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F41" t="n">
+        <v>40.2291295</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-74.3156731</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
+      <c r="A42" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -1479,9 +1734,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F42" t="n">
+        <v>40.2466201</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-74.3074707</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
+      <c r="A43" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -1504,9 +1765,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F43" t="n">
+        <v>40.2472347</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-74.3089507</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
+      <c r="A44" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -1529,9 +1796,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F44" t="n">
+        <v>40.2522236</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-74.23363139999999</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
+      <c r="A45" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -1554,9 +1827,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F45" t="n">
+        <v>40.2373044</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-74.28716009999999</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
+      <c r="A46" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -1579,9 +1858,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F46" t="n">
+        <v>40.2826829</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-74.25550819999999</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
+      <c r="A47" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -1604,9 +1889,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F47" t="n">
+        <v>40.2883512</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-74.27568939999999</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
+      <c r="A48" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -1629,9 +1920,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F48" t="n">
+        <v>40.218606</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-74.262095</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
+      <c r="A49" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -1654,9 +1951,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F49" t="n">
+        <v>40.2309921</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-74.255995</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
+      <c r="A50" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -1679,9 +1982,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F50" t="n">
+        <v>40.2763338</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-74.23015269999999</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
+      <c r="A51" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -1704,9 +2013,15 @@
           <t>Patel</t>
         </is>
       </c>
+      <c r="F51" t="n">
+        <v>40.1861284</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-74.2810229</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
+      <c r="A52" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -1729,9 +2044,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F52" t="n">
+        <v>40.2108665</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-74.3379666</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
+      <c r="A53" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -1754,9 +2075,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F53" t="n">
+        <v>40.28676979999999</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-74.25703299999999</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
+      <c r="A54" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -1779,9 +2106,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F54" t="n">
+        <v>40.2430806</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-74.3220853</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
+      <c r="A55" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -1804,9 +2137,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F55" t="n">
+        <v>40.24961709999999</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-74.31828209999999</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
+      <c r="A56" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -1829,9 +2168,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F56" t="n">
+        <v>40.2596056</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-74.2368448</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
+      <c r="A57" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -1854,9 +2199,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F57" t="n">
+        <v>40.2336532</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-74.32562879999999</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
+      <c r="A58" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -1879,9 +2230,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F58" t="n">
+        <v>40.2424925</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-74.32020369999999</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
+      <c r="A59" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -1904,9 +2261,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F59" t="n">
+        <v>40.2471789</v>
+      </c>
+      <c r="G59" t="n">
+        <v>-74.2656374</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
+      <c r="A60" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -1929,9 +2292,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F60" t="n">
+        <v>40.2711254</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-74.22599460000001</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
+      <c r="A61" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -1954,9 +2323,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F61" t="n">
+        <v>40.279046</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-74.25761109999999</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
+      <c r="A62" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -1979,9 +2354,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F62" t="n">
+        <v>40.2331356</v>
+      </c>
+      <c r="G62" t="n">
+        <v>-74.30675669999999</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
+      <c r="A63" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -2004,9 +2385,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F63" t="n">
+        <v>40.2483364</v>
+      </c>
+      <c r="G63" t="n">
+        <v>-74.2670394</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
+      <c r="A64" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -2029,9 +2416,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F64" t="n">
+        <v>40.2411137</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-74.2836878</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
+      <c r="A65" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -2054,9 +2447,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F65" t="n">
+        <v>40.2903182</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-74.26403069999999</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
+      <c r="A66" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -2079,9 +2478,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F66" t="n">
+        <v>40.2943332</v>
+      </c>
+      <c r="G66" t="n">
+        <v>-74.26255619999999</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
+      <c r="A67" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -2104,9 +2509,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F67" t="n">
+        <v>40.2252397</v>
+      </c>
+      <c r="G67" t="n">
+        <v>-74.3299509</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
+      <c r="A68" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -2129,9 +2540,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F68" t="n">
+        <v>40.1972145</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-74.2788501</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
+      <c r="A69" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -2154,9 +2571,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F69" t="n">
+        <v>40.2245985</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-74.28991859999999</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
+      <c r="A70" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -2179,9 +2602,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F70" t="n">
+        <v>40.221563</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-74.3150625</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
+      <c r="A71" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -2204,9 +2633,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F71" t="n">
+        <v>40.2879784</v>
+      </c>
+      <c r="G71" t="n">
+        <v>-74.26218179999999</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
+      <c r="A72" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -2229,9 +2664,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F72" t="n">
+        <v>40.2108665</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-74.3379666</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
+      <c r="A73" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
@@ -2254,9 +2695,15 @@
           <t>Shah</t>
         </is>
       </c>
+      <c r="F73" t="n">
+        <v>40.2779625</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-74.25902929999999</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
+      <c r="A74" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
@@ -2279,9 +2726,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F74" t="n">
+        <v>40.2179736</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-74.2612151</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
+      <c r="A75" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
@@ -2304,9 +2757,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F75" t="n">
+        <v>40.2251984</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-74.32010029999999</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
+      <c r="A76" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
@@ -2329,9 +2788,15 @@
           <t>Sharma</t>
         </is>
       </c>
+      <c r="F76" t="n">
+        <v>40.20335410000001</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-74.29658610000001</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
+      <c r="A77" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
@@ -2354,9 +2819,15 @@
           <t>Kadakia</t>
         </is>
       </c>
+      <c r="F77" t="n">
+        <v>40.287677</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-74.2600822</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
+      <c r="A78" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
@@ -2379,9 +2850,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F78" t="n">
+        <v>40.2867828</v>
+      </c>
+      <c r="G78" t="n">
+        <v>-74.26507509999999</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
+      <c r="A79" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
@@ -2404,9 +2881,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F79" t="n">
+        <v>40.21441919999999</v>
+      </c>
+      <c r="G79" t="n">
+        <v>-74.27697259999999</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
+      <c r="A80" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
@@ -2429,9 +2912,15 @@
           <t>Amin</t>
         </is>
       </c>
+      <c r="F80" t="n">
+        <v>40.2204526</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-74.31214199999999</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
+      <c r="A81" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="inlineStr">
@@ -2454,9 +2943,15 @@
           <t>Gandhi</t>
         </is>
       </c>
+      <c r="F81" t="n">
+        <v>40.2309566</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-74.2784295</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
+      <c r="A82" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="inlineStr">
@@ -2479,9 +2974,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F82" t="n">
+        <v>40.222466</v>
+      </c>
+      <c r="G82" t="n">
+        <v>-74.3211364</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
+      <c r="A83" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="inlineStr">
@@ -2504,9 +3005,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F83" t="n">
+        <v>40.2709722</v>
+      </c>
+      <c r="G83" t="n">
+        <v>-74.2405055</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
+      <c r="A84" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="inlineStr">
@@ -2529,9 +3036,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F84" t="n">
+        <v>40.2851745</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-74.27694269999999</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
+      <c r="A85" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="inlineStr">
@@ -2554,9 +3067,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F85" t="n">
+        <v>40.2857441</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-74.249364</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
+      <c r="A86" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="inlineStr">
@@ -2579,9 +3098,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F86" t="n">
+        <v>40.2903215</v>
+      </c>
+      <c r="G86" t="n">
+        <v>-74.2597222</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
+      <c r="A87" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="inlineStr">
@@ -2604,9 +3129,15 @@
           <t>Jain</t>
         </is>
       </c>
+      <c r="F87" t="n">
+        <v>40.2313495</v>
+      </c>
+      <c r="G87" t="n">
+        <v>-74.2779443</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
+      <c r="A88" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="inlineStr">
@@ -2629,9 +3160,15 @@
           <t>Panchal</t>
         </is>
       </c>
+      <c r="F88" t="n">
+        <v>40.2591658</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-74.2463764</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
+      <c r="A89" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="inlineStr">
@@ -2654,9 +3191,15 @@
           <t>Pandya</t>
         </is>
       </c>
+      <c r="F89" t="n">
+        <v>40.22573999999999</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-74.29494</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
+      <c r="A90" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="inlineStr">
@@ -2679,9 +3222,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F90" t="n">
+        <v>40.22997549999999</v>
+      </c>
+      <c r="G90" t="n">
+        <v>-74.3147534</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
+      <c r="A91" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="inlineStr">
@@ -2704,9 +3253,15 @@
           <t>Vyas</t>
         </is>
       </c>
+      <c r="F91" t="n">
+        <v>40.2430975</v>
+      </c>
+      <c r="G91" t="n">
+        <v>-74.3149451</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
+      <c r="A92" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="inlineStr">
@@ -2729,9 +3284,15 @@
           <t>Bhatt</t>
         </is>
       </c>
+      <c r="F92" t="n">
+        <v>40.2927174</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-74.26163489999999</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
+      <c r="A93" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="inlineStr">
@@ -2754,9 +3315,15 @@
           <t>Chauhan</t>
         </is>
       </c>
+      <c r="F93" t="n">
+        <v>40.2654806</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-74.25738729999999</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
+      <c r="A94" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="inlineStr">
@@ -2779,9 +3346,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F94" t="n">
+        <v>40.1842746</v>
+      </c>
+      <c r="G94" t="n">
+        <v>-74.28587419999999</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
+      <c r="A95" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="inlineStr">
@@ -2804,9 +3377,15 @@
           <t>Parekh</t>
         </is>
       </c>
+      <c r="F95" t="n">
+        <v>40.2117884</v>
+      </c>
+      <c r="G95" t="n">
+        <v>-74.3410902</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
+      <c r="A96" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="inlineStr">
@@ -2829,9 +3408,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F96" t="n">
+        <v>40.2873577</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-74.2581666</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
+      <c r="A97" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="inlineStr">
@@ -2854,9 +3439,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F97" t="n">
+        <v>40.277639</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-74.2597133</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
+      <c r="A98" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="inlineStr">
@@ -2879,9 +3470,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F98" t="n">
+        <v>40.2310405</v>
+      </c>
+      <c r="G98" t="n">
+        <v>-74.275291</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
+      <c r="A99" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="inlineStr">
@@ -2904,9 +3501,15 @@
           <t>Parikh</t>
         </is>
       </c>
+      <c r="F99" t="n">
+        <v>40.2248844</v>
+      </c>
+      <c r="G99" t="n">
+        <v>-74.2828071</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
+      <c r="A100" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="inlineStr">
@@ -2928,6 +3531,12 @@
         <is>
           <t>Javeri</t>
         </is>
+      </c>
+      <c r="F100" t="n">
+        <v>40.2182635</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-74.26009669999999</v>
       </c>
     </row>
   </sheetData>
